--- a/Checks All Publications.xlsx
+++ b/Checks All Publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Auteur</t>
   </si>
@@ -894,7 +894,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,6 +936,15 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">

--- a/Checks All Publications.xlsx
+++ b/Checks All Publications.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Checks All Publications" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Auteur</t>
   </si>
@@ -894,7 +894,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,6 +950,15 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -959,6 +968,15 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/Checks All Publications.xlsx
+++ b/Checks All Publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Auteur</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Autres</t>
+  </si>
+  <si>
+    <t>Divers</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -891,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,6 +994,15 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1038,14 +1053,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Checks All Publications.xlsx
+++ b/Checks All Publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Auteur</t>
   </si>
@@ -900,7 +900,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,6 +1032,12 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">

--- a/Checks All Publications.xlsx
+++ b/Checks All Publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>Auteur</t>
   </si>
@@ -900,7 +900,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,6 +1038,9 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">

--- a/Checks All Publications.xlsx
+++ b/Checks All Publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Auteur</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Weird</t>
+  </si>
+  <si>
+    <t>KO</t>
   </si>
 </sst>
 </file>
@@ -897,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +916,7 @@
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -923,8 +929,11 @@
       <c r="D1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -937,8 +946,11 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -951,8 +963,11 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -965,13 +980,16 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -984,13 +1002,28 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1003,18 +1036,21 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1027,8 +1063,11 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1041,38 +1080,41 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1081,6 +1123,9 @@
       </c>
       <c r="C19" t="s">
         <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Checks All Publications.xlsx
+++ b/Checks All Publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
   <si>
     <t>Auteur</t>
   </si>
@@ -906,7 +906,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,6 +1098,18 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">

--- a/Checks All Publications.xlsx
+++ b/Checks All Publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>Auteur</t>
   </si>
@@ -906,7 +906,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,6 +1088,15 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1119,6 +1128,18 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">

--- a/Checks All Publications.xlsx
+++ b/Checks All Publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
   <si>
     <t>Auteur</t>
   </si>
@@ -906,7 +906,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,6 +1124,18 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">

--- a/Checks All Publications.xlsx
+++ b/Checks All Publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>Auteur</t>
   </si>
@@ -906,7 +906,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,6 +1049,18 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">

--- a/Checks All Publications.xlsx
+++ b/Checks All Publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t>Auteur</t>
   </si>
@@ -906,7 +906,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,6 +1170,18 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">

--- a/Checks All Publications.xlsx
+++ b/Checks All Publications.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>Auteur</t>
   </si>
@@ -91,12 +91,6 @@
   </si>
   <si>
     <t>x</t>
-  </si>
-  <si>
-    <t>Weird</t>
-  </si>
-  <si>
-    <t>KO</t>
   </si>
 </sst>
 </file>
@@ -903,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +910,7 @@
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -929,11 +923,8 @@
       <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -946,11 +937,8 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -963,11 +951,8 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -980,16 +965,13 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1002,11 +984,8 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1019,11 +998,8 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1036,16 +1012,22 @@
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1058,11 +1040,8 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1075,11 +1054,8 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1092,11 +1068,8 @@
       <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1107,15 +1080,15 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1128,11 +1101,8 @@
       <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1145,11 +1115,8 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1162,16 +1129,13 @@
       <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1179,11 +1143,8 @@
       <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1192,9 +1153,6 @@
       </c>
       <c r="C19" t="s">
         <v>23</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
